--- a/ITsleng_project/Files/AppMetric - Events Map.xlsx
+++ b/ITsleng_project/Files/AppMetric - Events Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSuvorov_Projects\AliceProjects\ITsleng_project\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD4574-AE14-4956-B474-A24582F98BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D838FD-DEE1-4422-8974-BAD2A3066EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список событий" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:E1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2244,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6805D88-86B1-4F95-92EC-7C22E16B1AB7}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
